--- a/7/1/1/3/1/Series desestacionalizadas 1996 a 2021 - Anual.xlsx
+++ b/7/1/1/3/1/Series desestacionalizadas 1996 a 2021 - Anual.xlsx
@@ -1629,7 +1629,7 @@
         <v>47</v>
       </c>
       <c r="B14">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="C14">
         <v>458</v>
@@ -1638,16 +1638,16 @@
         <v>13236</v>
       </c>
       <c r="E14">
-        <v>12087</v>
+        <v>12088</v>
       </c>
       <c r="F14">
         <v>1148</v>
       </c>
       <c r="G14">
-        <v>10421</v>
+        <v>10418</v>
       </c>
       <c r="H14">
-        <v>3862</v>
+        <v>3861</v>
       </c>
       <c r="K14">
         <v>360</v>
@@ -1656,7 +1656,7 @@
         <v>647</v>
       </c>
       <c r="M14">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="N14">
         <v>2202</v>
@@ -1665,19 +1665,19 @@
         <v>692</v>
       </c>
       <c r="R14">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="S14">
         <v>2624</v>
       </c>
       <c r="T14">
-        <v>5944</v>
+        <v>5943</v>
       </c>
       <c r="U14">
-        <v>9671</v>
+        <v>9669</v>
       </c>
       <c r="X14">
-        <v>5118</v>
+        <v>5117</v>
       </c>
       <c r="Y14">
         <v>3071</v>
@@ -1695,13 +1695,13 @@
         <v>3811</v>
       </c>
       <c r="AG14">
-        <v>7373</v>
+        <v>7372</v>
       </c>
       <c r="AH14">
         <v>573</v>
       </c>
       <c r="AI14">
-        <v>93897</v>
+        <v>93889</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -1709,7 +1709,7 @@
         <v>48</v>
       </c>
       <c r="B15">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="C15">
         <v>490</v>
@@ -1724,10 +1724,10 @@
         <v>996</v>
       </c>
       <c r="G15">
-        <v>10836</v>
+        <v>10833</v>
       </c>
       <c r="H15">
-        <v>4363</v>
+        <v>4362</v>
       </c>
       <c r="K15">
         <v>291</v>
@@ -1742,10 +1742,10 @@
         <v>2310</v>
       </c>
       <c r="Q15">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="R15">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="S15">
         <v>3211</v>
@@ -1754,7 +1754,7 @@
         <v>6609</v>
       </c>
       <c r="U15">
-        <v>8860</v>
+        <v>8858</v>
       </c>
       <c r="X15">
         <v>4795</v>
@@ -1775,13 +1775,13 @@
         <v>4398</v>
       </c>
       <c r="AG15">
-        <v>7167</v>
+        <v>7166</v>
       </c>
       <c r="AH15">
         <v>431</v>
       </c>
       <c r="AI15">
-        <v>96477</v>
+        <v>96470</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -1789,7 +1789,7 @@
         <v>49</v>
       </c>
       <c r="B16">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="C16">
         <v>567</v>
@@ -1804,10 +1804,10 @@
         <v>1356</v>
       </c>
       <c r="G16">
-        <v>11984</v>
+        <v>11980</v>
       </c>
       <c r="H16">
-        <v>4569</v>
+        <v>4568</v>
       </c>
       <c r="K16">
         <v>365</v>
@@ -1834,10 +1834,10 @@
         <v>6648</v>
       </c>
       <c r="U16">
-        <v>10856</v>
+        <v>10853</v>
       </c>
       <c r="X16">
-        <v>5593</v>
+        <v>5592</v>
       </c>
       <c r="Y16">
         <v>3660</v>
@@ -1855,13 +1855,13 @@
         <v>4844</v>
       </c>
       <c r="AG16">
-        <v>8178</v>
+        <v>8177</v>
       </c>
       <c r="AH16">
         <v>627</v>
       </c>
       <c r="AI16">
-        <v>111422</v>
+        <v>111413</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -1869,7 +1869,7 @@
         <v>50</v>
       </c>
       <c r="B17">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="C17">
         <v>716</v>
@@ -1884,13 +1884,13 @@
         <v>1916</v>
       </c>
       <c r="G17">
-        <v>13397</v>
+        <v>13394</v>
       </c>
       <c r="H17">
-        <v>5092</v>
+        <v>5090</v>
       </c>
       <c r="K17">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L17">
         <v>664</v>
@@ -1905,22 +1905,22 @@
         <v>959</v>
       </c>
       <c r="R17">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="S17">
         <v>3625</v>
       </c>
       <c r="T17">
-        <v>7147</v>
+        <v>7146</v>
       </c>
       <c r="U17">
-        <v>12094</v>
+        <v>12091</v>
       </c>
       <c r="X17">
-        <v>5607</v>
+        <v>5606</v>
       </c>
       <c r="Y17">
-        <v>3958</v>
+        <v>3957</v>
       </c>
       <c r="Z17">
         <v>17965</v>
@@ -1935,13 +1935,13 @@
         <v>5136</v>
       </c>
       <c r="AG17">
-        <v>9321</v>
+        <v>9320</v>
       </c>
       <c r="AH17">
         <v>584</v>
       </c>
       <c r="AI17">
-        <v>121890</v>
+        <v>121881</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -1949,7 +1949,7 @@
         <v>51</v>
       </c>
       <c r="B18">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="C18">
         <v>542</v>
@@ -1964,10 +1964,10 @@
         <v>1790</v>
       </c>
       <c r="G18">
-        <v>14078</v>
+        <v>14074</v>
       </c>
       <c r="H18">
-        <v>5540</v>
+        <v>5538</v>
       </c>
       <c r="K18">
         <v>376</v>
@@ -1979,28 +1979,28 @@
         <v>1072</v>
       </c>
       <c r="N18">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="Q18">
         <v>823</v>
       </c>
       <c r="R18">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="S18">
         <v>3552</v>
       </c>
       <c r="T18">
-        <v>8384</v>
+        <v>8383</v>
       </c>
       <c r="U18">
-        <v>13987</v>
+        <v>13985</v>
       </c>
       <c r="X18">
-        <v>6193</v>
+        <v>6192</v>
       </c>
       <c r="Y18">
-        <v>4190</v>
+        <v>4189</v>
       </c>
       <c r="Z18">
         <v>19825</v>
@@ -2015,13 +2015,13 @@
         <v>5615</v>
       </c>
       <c r="AG18">
-        <v>10347</v>
+        <v>10346</v>
       </c>
       <c r="AH18">
         <v>713</v>
       </c>
       <c r="AI18">
-        <v>129914</v>
+        <v>129904</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2044,13 +2044,13 @@
         <v>1677</v>
       </c>
       <c r="G19">
-        <v>15370</v>
+        <v>15366</v>
       </c>
       <c r="H19">
-        <v>6054</v>
+        <v>6053</v>
       </c>
       <c r="I19">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="J19">
         <v>2041</v>
@@ -2065,7 +2065,7 @@
         <v>1214</v>
       </c>
       <c r="N19">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="O19">
         <v>1153</v>
@@ -2083,22 +2083,22 @@
         <v>3545</v>
       </c>
       <c r="T19">
-        <v>8977</v>
+        <v>8976</v>
       </c>
       <c r="U19">
-        <v>15094</v>
+        <v>15091</v>
       </c>
       <c r="V19">
-        <v>12542</v>
+        <v>12539</v>
       </c>
       <c r="W19">
         <v>2552</v>
       </c>
       <c r="X19">
-        <v>6502</v>
+        <v>6501</v>
       </c>
       <c r="Y19">
-        <v>4311</v>
+        <v>4310</v>
       </c>
       <c r="Z19">
         <v>21625</v>
@@ -2119,16 +2119,16 @@
         <v>6188</v>
       </c>
       <c r="AF19">
-        <v>126242</v>
+        <v>126233</v>
       </c>
       <c r="AG19">
-        <v>11035</v>
+        <v>11034</v>
       </c>
       <c r="AH19">
         <v>648</v>
       </c>
       <c r="AI19">
-        <v>137925</v>
+        <v>137915</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2136,7 +2136,7 @@
         <v>53</v>
       </c>
       <c r="B20">
-        <v>4539</v>
+        <v>4538</v>
       </c>
       <c r="C20">
         <v>1003</v>
@@ -2151,13 +2151,13 @@
         <v>1471</v>
       </c>
       <c r="G20">
-        <v>16827</v>
+        <v>16823</v>
       </c>
       <c r="H20">
-        <v>6863</v>
+        <v>6861</v>
       </c>
       <c r="I20">
-        <v>4716</v>
+        <v>4714</v>
       </c>
       <c r="J20">
         <v>2147</v>
@@ -2181,28 +2181,28 @@
         <v>2233</v>
       </c>
       <c r="Q20">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="R20">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="S20">
         <v>3673</v>
       </c>
       <c r="T20">
-        <v>9401</v>
+        <v>9400</v>
       </c>
       <c r="U20">
-        <v>16613</v>
+        <v>16609</v>
       </c>
       <c r="V20">
-        <v>13780</v>
+        <v>13776</v>
       </c>
       <c r="W20">
         <v>2832</v>
       </c>
       <c r="X20">
-        <v>6964</v>
+        <v>6963</v>
       </c>
       <c r="Y20">
         <v>4425</v>
@@ -2226,16 +2226,16 @@
         <v>6837</v>
       </c>
       <c r="AF20">
-        <v>135921</v>
+        <v>135911</v>
       </c>
       <c r="AG20">
-        <v>11951</v>
+        <v>11950</v>
       </c>
       <c r="AH20">
         <v>718</v>
       </c>
       <c r="AI20">
-        <v>148591</v>
+        <v>148579</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2243,7 +2243,7 @@
         <v>54</v>
       </c>
       <c r="B21">
-        <v>5198</v>
+        <v>5197</v>
       </c>
       <c r="C21">
         <v>604</v>
@@ -2258,13 +2258,13 @@
         <v>1250</v>
       </c>
       <c r="G21">
-        <v>18587</v>
+        <v>18583</v>
       </c>
       <c r="H21">
-        <v>7822</v>
+        <v>7820</v>
       </c>
       <c r="I21">
-        <v>5097</v>
+        <v>5095</v>
       </c>
       <c r="J21">
         <v>2725</v>
@@ -2285,31 +2285,31 @@
         <v>1729</v>
       </c>
       <c r="P21">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="Q21">
         <v>837</v>
       </c>
       <c r="R21">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="S21">
         <v>4717</v>
       </c>
       <c r="T21">
-        <v>10461</v>
+        <v>10459</v>
       </c>
       <c r="U21">
-        <v>18017</v>
+        <v>18012</v>
       </c>
       <c r="V21">
-        <v>14798</v>
+        <v>14793</v>
       </c>
       <c r="W21">
         <v>3219</v>
       </c>
       <c r="X21">
-        <v>8570</v>
+        <v>8569</v>
       </c>
       <c r="Y21">
         <v>4611</v>
@@ -2333,16 +2333,16 @@
         <v>7498</v>
       </c>
       <c r="AF21">
-        <v>145654</v>
+        <v>145641</v>
       </c>
       <c r="AG21">
-        <v>13109</v>
+        <v>13107</v>
       </c>
       <c r="AH21">
         <v>749</v>
       </c>
       <c r="AI21">
-        <v>159513</v>
+        <v>159498</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -2350,7 +2350,7 @@
         <v>55</v>
       </c>
       <c r="B22">
-        <v>5877</v>
+        <v>5876</v>
       </c>
       <c r="C22">
         <v>884</v>
@@ -2365,13 +2365,13 @@
         <v>1648</v>
       </c>
       <c r="G22">
-        <v>18560</v>
+        <v>18555</v>
       </c>
       <c r="H22">
-        <v>7898</v>
+        <v>7896</v>
       </c>
       <c r="I22">
-        <v>5420</v>
+        <v>5418</v>
       </c>
       <c r="J22">
         <v>2478</v>
@@ -2392,7 +2392,7 @@
         <v>1651</v>
       </c>
       <c r="P22">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="Q22">
         <v>856</v>
@@ -2404,19 +2404,19 @@
         <v>5186</v>
       </c>
       <c r="T22">
-        <v>11497</v>
+        <v>11494</v>
       </c>
       <c r="U22">
-        <v>19684</v>
+        <v>19679</v>
       </c>
       <c r="V22">
-        <v>16120</v>
+        <v>16115</v>
       </c>
       <c r="W22">
         <v>3564</v>
       </c>
       <c r="X22">
-        <v>8967</v>
+        <v>8966</v>
       </c>
       <c r="Y22">
         <v>4660</v>
@@ -2440,16 +2440,16 @@
         <v>8204</v>
       </c>
       <c r="AF22">
-        <v>154868</v>
+        <v>154853</v>
       </c>
       <c r="AG22">
-        <v>13721</v>
+        <v>13719</v>
       </c>
       <c r="AH22">
         <v>696</v>
       </c>
       <c r="AI22">
-        <v>169285</v>
+        <v>169267</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -2466,22 +2466,22 @@
         <v>17318</v>
       </c>
       <c r="E23">
-        <v>15606</v>
+        <v>15605</v>
       </c>
       <c r="F23">
         <v>1713</v>
       </c>
       <c r="G23">
-        <v>18757</v>
+        <v>18751</v>
       </c>
       <c r="H23">
-        <v>8150</v>
+        <v>8147</v>
       </c>
       <c r="I23">
-        <v>5858</v>
+        <v>5855</v>
       </c>
       <c r="J23">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="K23">
         <v>354</v>
@@ -2505,28 +2505,28 @@
         <v>795</v>
       </c>
       <c r="R23">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="S23">
-        <v>5287</v>
+        <v>5286</v>
       </c>
       <c r="T23">
-        <v>11565</v>
+        <v>11564</v>
       </c>
       <c r="U23">
-        <v>21018</v>
+        <v>21011</v>
       </c>
       <c r="V23">
-        <v>17099</v>
+        <v>17092</v>
       </c>
       <c r="W23">
         <v>3920</v>
       </c>
       <c r="X23">
-        <v>8728</v>
+        <v>8727</v>
       </c>
       <c r="Y23">
-        <v>4677</v>
+        <v>4676</v>
       </c>
       <c r="Z23">
         <v>25850</v>
@@ -2547,16 +2547,16 @@
         <v>8694</v>
       </c>
       <c r="AF23">
-        <v>164322</v>
+        <v>164306</v>
       </c>
       <c r="AG23">
-        <v>14720</v>
+        <v>14719</v>
       </c>
       <c r="AH23">
         <v>817</v>
       </c>
       <c r="AI23">
-        <v>179859</v>
+        <v>179841</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -2564,7 +2564,7 @@
         <v>57</v>
       </c>
       <c r="B24">
-        <v>5665</v>
+        <v>5664</v>
       </c>
       <c r="C24">
         <v>1116</v>
@@ -2573,28 +2573,28 @@
         <v>18115</v>
       </c>
       <c r="E24">
-        <v>16280</v>
+        <v>16281</v>
       </c>
       <c r="F24">
         <v>1835</v>
       </c>
       <c r="G24">
-        <v>20209</v>
+        <v>20203</v>
       </c>
       <c r="H24">
-        <v>8796</v>
+        <v>8793</v>
       </c>
       <c r="I24">
-        <v>5973</v>
+        <v>5971</v>
       </c>
       <c r="J24">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="K24">
         <v>326</v>
       </c>
       <c r="L24">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="M24">
         <v>2242</v>
@@ -2606,31 +2606,31 @@
         <v>1627</v>
       </c>
       <c r="P24">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="Q24">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="R24">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="S24">
         <v>5448</v>
       </c>
       <c r="T24">
-        <v>12402</v>
+        <v>12401</v>
       </c>
       <c r="U24">
-        <v>22601</v>
+        <v>22594</v>
       </c>
       <c r="V24">
-        <v>18337</v>
+        <v>18330</v>
       </c>
       <c r="W24">
         <v>4264</v>
       </c>
       <c r="X24">
-        <v>8685</v>
+        <v>8684</v>
       </c>
       <c r="Y24">
         <v>4739</v>
@@ -2654,16 +2654,16 @@
         <v>9095</v>
       </c>
       <c r="AF24">
-        <v>174382</v>
+        <v>174366</v>
       </c>
       <c r="AG24">
-        <v>15868</v>
+        <v>15867</v>
       </c>
       <c r="AH24">
         <v>831</v>
       </c>
       <c r="AI24">
-        <v>191082</v>
+        <v>191064</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -2671,7 +2671,7 @@
         <v>58</v>
       </c>
       <c r="B25">
-        <v>5812</v>
+        <v>5811</v>
       </c>
       <c r="C25">
         <v>1282</v>
@@ -2686,22 +2686,22 @@
         <v>1906</v>
       </c>
       <c r="G25">
-        <v>19963</v>
+        <v>19958</v>
       </c>
       <c r="H25">
-        <v>9071</v>
+        <v>9068</v>
       </c>
       <c r="I25">
-        <v>6102</v>
+        <v>6100</v>
       </c>
       <c r="J25">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="K25">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L25">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="M25">
         <v>1683</v>
@@ -2719,25 +2719,25 @@
         <v>840</v>
       </c>
       <c r="R25">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="S25">
         <v>5750</v>
       </c>
       <c r="T25">
-        <v>13623</v>
+        <v>13620</v>
       </c>
       <c r="U25">
-        <v>22518</v>
+        <v>22511</v>
       </c>
       <c r="V25">
-        <v>17996</v>
+        <v>17989</v>
       </c>
       <c r="W25">
         <v>4522</v>
       </c>
       <c r="X25">
-        <v>9296</v>
+        <v>9295</v>
       </c>
       <c r="Y25">
         <v>4551</v>
@@ -2761,7 +2761,7 @@
         <v>9582</v>
       </c>
       <c r="AF25">
-        <v>179775</v>
+        <v>179758</v>
       </c>
       <c r="AG25">
         <v>15992</v>
@@ -2770,7 +2770,7 @@
         <v>736</v>
       </c>
       <c r="AI25">
-        <v>196503</v>
+        <v>196486</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -2778,37 +2778,37 @@
         <v>59</v>
       </c>
       <c r="B26">
-        <v>6830</v>
+        <v>6829</v>
       </c>
       <c r="C26">
         <v>910</v>
       </c>
       <c r="D26">
-        <v>24839</v>
+        <v>24837</v>
       </c>
       <c r="E26">
-        <v>22307</v>
+        <v>22305</v>
       </c>
       <c r="F26">
         <v>2533</v>
       </c>
       <c r="G26">
-        <v>19830</v>
+        <v>19827</v>
       </c>
       <c r="H26">
-        <v>8990</v>
+        <v>8987</v>
       </c>
       <c r="I26">
-        <v>6255</v>
+        <v>6253</v>
       </c>
       <c r="J26">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="K26">
         <v>198</v>
       </c>
       <c r="L26">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="M26">
         <v>1589</v>
@@ -2820,10 +2820,10 @@
         <v>1680</v>
       </c>
       <c r="P26">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="Q26">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="R26">
         <v>3142</v>
@@ -2832,22 +2832,22 @@
         <v>6097</v>
       </c>
       <c r="T26">
-        <v>11961</v>
+        <v>11966</v>
       </c>
       <c r="U26">
-        <v>21747</v>
+        <v>21728</v>
       </c>
       <c r="V26">
-        <v>18562</v>
+        <v>18543</v>
       </c>
       <c r="W26">
         <v>3185</v>
       </c>
       <c r="X26">
-        <v>8297</v>
+        <v>8295</v>
       </c>
       <c r="Y26">
-        <v>4170</v>
+        <v>4171</v>
       </c>
       <c r="Z26">
         <v>28577</v>
@@ -2868,16 +2868,16 @@
         <v>9901</v>
       </c>
       <c r="AF26">
-        <v>183548</v>
+        <v>183526</v>
       </c>
       <c r="AG26">
-        <v>15571</v>
+        <v>15562</v>
       </c>
       <c r="AH26">
         <v>902</v>
       </c>
       <c r="AI26">
-        <v>200021</v>
+        <v>199990</v>
       </c>
     </row>
   </sheetData>
